--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Itga5</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H2">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I2">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J2">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>2.059877492804444</v>
+        <v>114.3596049562662</v>
       </c>
       <c r="R2">
-        <v>18.53889743524</v>
+        <v>1029.236444606396</v>
       </c>
       <c r="S2">
-        <v>0.002094497174460089</v>
+        <v>0.2073981893020739</v>
       </c>
       <c r="T2">
-        <v>0.002094497174460089</v>
+        <v>0.207398189302074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H3">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I3">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J3">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>2.192236157602111</v>
+        <v>337.8515561775524</v>
       </c>
       <c r="R3">
-        <v>19.730125418419</v>
+        <v>3040.664005597972</v>
       </c>
       <c r="S3">
-        <v>0.002229080347683945</v>
+        <v>0.6127146122173875</v>
       </c>
       <c r="T3">
-        <v>0.002229080347683945</v>
+        <v>0.6127146122173877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H4">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I4">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J4">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>0.6138240119613333</v>
+        <v>45.01457003407288</v>
       </c>
       <c r="R4">
-        <v>5.524416107652</v>
+        <v>405.131130306656</v>
       </c>
       <c r="S4">
-        <v>0.0006241403496857483</v>
+        <v>0.08163669611178172</v>
       </c>
       <c r="T4">
-        <v>0.0006241403496857483</v>
+        <v>0.08163669611178173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H5">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I5">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J5">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>317.4533975574577</v>
+        <v>12.460099691944</v>
       </c>
       <c r="R5">
-        <v>2857.080578017119</v>
+        <v>112.140897227496</v>
       </c>
       <c r="S5">
-        <v>0.3227887321112516</v>
+        <v>0.02259715846011162</v>
       </c>
       <c r="T5">
-        <v>0.3227887321112516</v>
+        <v>0.02259715846011163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H6">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I6">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J6">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
-        <v>337.8515561775524</v>
+        <v>36.810760868408</v>
       </c>
       <c r="R6">
-        <v>3040.664005597972</v>
+        <v>331.296847815672</v>
       </c>
       <c r="S6">
-        <v>0.3435297158557801</v>
+        <v>0.06675858275182973</v>
       </c>
       <c r="T6">
-        <v>0.3435297158557801</v>
+        <v>0.06675858275182976</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H7">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I7">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J7">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>94.59811021779733</v>
+        <v>4.904581739583999</v>
       </c>
       <c r="R7">
-        <v>851.3829919601759</v>
+        <v>44.14123565625599</v>
       </c>
       <c r="S7">
-        <v>0.09618798945692963</v>
+        <v>0.008894761156815282</v>
       </c>
       <c r="T7">
-        <v>0.09618798945692963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H8">
-        <v>10.111574</v>
-      </c>
-      <c r="I8">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J8">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>28.72417333333333</v>
-      </c>
-      <c r="N8">
-        <v>86.17251999999999</v>
-      </c>
-      <c r="O8">
-        <v>0.4233259107972328</v>
-      </c>
-      <c r="P8">
-        <v>0.4233259107972328</v>
-      </c>
-      <c r="Q8">
-        <v>96.81553474960889</v>
-      </c>
-      <c r="R8">
-        <v>871.33981274648</v>
-      </c>
-      <c r="S8">
-        <v>0.09844268151152101</v>
-      </c>
-      <c r="T8">
-        <v>0.09844268151152104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H9">
-        <v>10.111574</v>
-      </c>
-      <c r="I9">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J9">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>30.56986233333333</v>
-      </c>
-      <c r="N9">
-        <v>91.709587</v>
-      </c>
-      <c r="O9">
-        <v>0.4505269713084062</v>
-      </c>
-      <c r="P9">
-        <v>0.4505269713084062</v>
-      </c>
-      <c r="Q9">
-        <v>103.0364750511042</v>
-      </c>
-      <c r="R9">
-        <v>927.328275459938</v>
-      </c>
-      <c r="S9">
-        <v>0.1047681751049421</v>
-      </c>
-      <c r="T9">
-        <v>0.1047681751049422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H10">
-        <v>10.111574</v>
-      </c>
-      <c r="I10">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J10">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.559531999999999</v>
-      </c>
-      <c r="N10">
-        <v>25.678596</v>
-      </c>
-      <c r="O10">
-        <v>0.126147117894361</v>
-      </c>
-      <c r="P10">
-        <v>0.126147117894361</v>
-      </c>
-      <c r="Q10">
-        <v>28.85011374112267</v>
-      </c>
-      <c r="R10">
-        <v>259.651023670104</v>
-      </c>
-      <c r="S10">
-        <v>0.02933498808774558</v>
-      </c>
-      <c r="T10">
-        <v>0.02933498808774558</v>
+        <v>0.008894761156815286</v>
       </c>
     </row>
   </sheetData>
